--- a/pred_ohlcv/54_21/2019-10-29 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 OMG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>24004.7004</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>24040.09</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>23240.09</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>23944.3525</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24047.3919</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>23515.2839</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>23415.2839</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>22284.0297</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>22274.6537</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>21686.7404</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>21243.22269811009</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>21806.39309811009</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19496.0506538053</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>17969.2301538053</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>15183.69975380529</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>15437.60595380529</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>15168.10595380529</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>15268.38425380529</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>15265.73232010364</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>15246.47292010364</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>15195.91292010364</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>15088.88612010364</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>16199.15542010364</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>12932.05132010364</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>12915.57692010364</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>12657.51081627283</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>13737.79141627283</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>16977.44241627283</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>16912.12661627283</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>16581.12661627283</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>17341.21421627283</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>17281.38221627283</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>17138.38221627283</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>18166.81321627283</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>18110.54621627283</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>18129.13911627283</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>18131.46571627283</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>17240.37511627283</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>17235.38761627283</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-9449.982075910422</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-7576.043475910423</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7564.419575910423</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6736.369675910424</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-7008.594875910424</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1002.189062522004</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1086.261462522004</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1027.259237477996</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1029.180637477996</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>15891.96723084293</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>19161.81649320684</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>19134.32649320684</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>18987.28829320684</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>15767.26739320684</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>18581.98786501999</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>18223.4221279682</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>19361.3811279682</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>19908.5740279682</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>18237.0761279682</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>16842.0917279682</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>15853.1383279682</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>17289.2560279682</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>17041.5452279682</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>17370.3218279682</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>17338.4170279682</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>17207.2461279682</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>17702.2761279682</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>17773.5196279682</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>17816.3485279682</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>18433.5894279682</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>18380.0702279682</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>17780.1341279682</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>18589.4185279682</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>18589.0770279682</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>18597.5521279682</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>18762.6196279682</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>17975.71462796821</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>17327.11514718981</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>17349.56864718981</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>17048.73104718981</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>15942.22178464001</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>16903.97508464001</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>16949.81538464001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>16949.81538464001</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>16875.66378464001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>16875.66378464001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>16834.51328464001</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>16144.71028464001</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 OMG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>24004.7004</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>24040.09</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>23240.09</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>23944.3525</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24047.3919</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -782,7 +782,7 @@
         <v>23515.2839</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>23415.2839</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>22284.0297</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>22274.6537</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>21686.7404</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>22479.2926</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>22589.3925</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-9449.982075910422</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-9449.982075910422</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-9462.523775910422</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-7195.997475910423</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-7252.823575910423</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-7288.224475910422</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-7793.983175910423</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-7576.043475910423</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7564.419575910423</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-7592.919575910423</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-6413.751675910424</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-6736.369675910424</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-7008.594875910424</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-6657.152075910424</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1055.283075910424</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-997.793162522004</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1002.189062522004</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1086.261462522004</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>151.5186374779959</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1027.259237477996</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>16017.44893084293</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>15891.96723084293</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>16523.16723084293</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>19161.81649320684</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>19134.32649320684</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>18987.28829320684</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>15767.26739320684</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>18581.98786501999</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>18223.4221279682</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>19908.5740279682</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>15853.1383279682</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
